--- a/doc/BangKeHoach-DoAn1.xlsx
+++ b/doc/BangKeHoach-DoAn1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DangKhoa\Desktop\doan1\Project-1-\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DangKhoa\Desktop\doan1\Project-1-\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
   <si>
     <t>DANH SÁCH CÔNG VIỆC</t>
   </si>
@@ -124,6 +124,15 @@
   </si>
   <si>
     <t>thiết kế giao diện</t>
+  </si>
+  <si>
+    <t>thiết kế game 2048</t>
+  </si>
+  <si>
+    <t>tạo hàm sinh ngẫu nhiên</t>
+  </si>
+  <si>
+    <t>undo,redo</t>
   </si>
 </sst>
 </file>
@@ -592,7 +601,7 @@
   <dimension ref="A1:W999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -878,29 +887,25 @@
     </row>
     <row r="9" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>12</v>
-      </c>
+      <c r="C9" s="10"/>
       <c r="D9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>16</v>
+      <c r="E9" s="7">
+        <v>43595</v>
       </c>
       <c r="F9" s="7">
         <v>43626</v>
       </c>
-      <c r="G9" s="7" t="s">
-        <v>16</v>
+      <c r="G9" s="7">
+        <v>43506</v>
       </c>
-      <c r="H9" s="7" t="s">
-        <v>17</v>
-      </c>
+      <c r="H9" s="7"/>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
@@ -919,19 +924,21 @@
     </row>
     <row r="10" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="9" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="17" t="s">
-        <v>16</v>
+      <c r="E10" s="7">
+        <v>43656</v>
       </c>
-      <c r="F10" s="17">
-        <v>43534</v>
+      <c r="F10" s="7">
+        <v>43718</v>
       </c>
-      <c r="G10" s="7"/>
+      <c r="G10" s="7">
+        <v>43506</v>
+      </c>
       <c r="H10" s="7"/>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
@@ -950,17 +957,22 @@
       <c r="W10" s="8"/>
     </row>
     <row r="11" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="16" t="s">
+        <v>35</v>
+      </c>
       <c r="B11" s="9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>12</v>
+      <c r="D11" s="10"/>
+      <c r="E11" s="7">
+        <v>43748</v>
       </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
+      <c r="F11" s="7">
+        <v>43809</v>
+      </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="8"/>
@@ -980,22 +992,15 @@
       <c r="W11" s="8"/>
     </row>
     <row r="12" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="16" t="s">
-        <v>32</v>
+      <c r="B12" s="9" t="s">
+        <v>36</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10" t="s">
+      <c r="C12" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="7">
-        <v>43595</v>
-      </c>
-      <c r="F12" s="7">
-        <v>43626</v>
-      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="8"/>
@@ -1016,18 +1021,14 @@
     </row>
     <row r="13" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="10"/>
-      <c r="E13" s="7">
-        <v>43656</v>
-      </c>
-      <c r="F13" s="7">
-        <v>43718</v>
-      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="8"/>
@@ -1047,11 +1048,24 @@
       <c r="W13" s="8"/>
     </row>
     <row r="14" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
+      <c r="A14" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="7">
+        <v>43748</v>
+      </c>
+      <c r="F14" s="7">
+        <v>43779</v>
+      </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="8"/>
@@ -1071,11 +1085,19 @@
       <c r="W14" s="8"/>
     </row>
     <row r="15" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="9"/>
+      <c r="B15" s="9" t="s">
+        <v>30</v>
+      </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
+      <c r="D15" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="17">
+        <v>43748</v>
+      </c>
+      <c r="F15" s="17">
+        <v>43779</v>
+      </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="8"/>
@@ -1095,11 +1117,17 @@
       <c r="W15" s="8"/>
     </row>
     <row r="16" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
+      <c r="B16" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="8"/>
@@ -1118,7 +1146,7 @@
       <c r="V16" s="8"/>
       <c r="W16" s="8"/>
     </row>
-    <row r="17" spans="2:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="9"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
@@ -1142,7 +1170,7 @@
       <c r="V17" s="8"/>
       <c r="W17" s="8"/>
     </row>
-    <row r="18" spans="2:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="9"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
@@ -1166,7 +1194,7 @@
       <c r="V18" s="8"/>
       <c r="W18" s="8"/>
     </row>
-    <row r="19" spans="2:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="9"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
@@ -1190,7 +1218,7 @@
       <c r="V19" s="8"/>
       <c r="W19" s="8"/>
     </row>
-    <row r="20" spans="2:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="9"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
@@ -1214,7 +1242,7 @@
       <c r="V20" s="8"/>
       <c r="W20" s="8"/>
     </row>
-    <row r="21" spans="2:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="9"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
@@ -1238,14 +1266,14 @@
       <c r="V21" s="8"/>
       <c r="W21" s="8"/>
     </row>
-    <row r="22" spans="2:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="9"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
+    <row r="22" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="1"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
@@ -1262,14 +1290,15 @@
       <c r="V22" s="8"/>
       <c r="W22" s="8"/>
     </row>
-    <row r="23" spans="2:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="9"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
+    <row r="23" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="2"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="14"/>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
@@ -1286,14 +1315,15 @@
       <c r="V23" s="8"/>
       <c r="W23" s="8"/>
     </row>
-    <row r="24" spans="2:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="9"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
+    <row r="24" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="2"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
@@ -1310,7 +1340,8 @@
       <c r="V24" s="8"/>
       <c r="W24" s="8"/>
     </row>
-    <row r="25" spans="2:23" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="2"/>
       <c r="B25" s="1"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
@@ -1330,14 +1361,14 @@
       <c r="R25" s="13"/>
       <c r="S25" s="13"/>
     </row>
-    <row r="26" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="1"/>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
       <c r="G26" s="12"/>
-      <c r="H26" s="14"/>
+      <c r="H26" s="12"/>
       <c r="I26" s="13"/>
       <c r="J26" s="13"/>
       <c r="K26" s="13"/>
@@ -1350,7 +1381,7 @@
       <c r="R26" s="13"/>
       <c r="S26" s="13"/>
     </row>
-    <row r="27" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="1"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
@@ -1370,7 +1401,7 @@
       <c r="R27" s="13"/>
       <c r="S27" s="13"/>
     </row>
-    <row r="28" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="1"/>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
@@ -1390,7 +1421,7 @@
       <c r="R28" s="13"/>
       <c r="S28" s="13"/>
     </row>
-    <row r="29" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="1"/>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
@@ -1410,7 +1441,7 @@
       <c r="R29" s="13"/>
       <c r="S29" s="13"/>
     </row>
-    <row r="30" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="1"/>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
@@ -1430,7 +1461,7 @@
       <c r="R30" s="13"/>
       <c r="S30" s="13"/>
     </row>
-    <row r="31" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="1"/>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
@@ -1450,7 +1481,7 @@
       <c r="R31" s="13"/>
       <c r="S31" s="13"/>
     </row>
-    <row r="32" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="1"/>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
@@ -20751,13 +20782,6 @@
       <c r="S996" s="13"/>
     </row>
     <row r="997" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B997" s="1"/>
-      <c r="C997" s="11"/>
-      <c r="D997" s="11"/>
-      <c r="E997" s="12"/>
-      <c r="F997" s="12"/>
-      <c r="G997" s="12"/>
-      <c r="H997" s="12"/>
       <c r="I997" s="13"/>
       <c r="J997" s="13"/>
       <c r="K997" s="13"/>
@@ -20771,13 +20795,6 @@
       <c r="S997" s="13"/>
     </row>
     <row r="998" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B998" s="1"/>
-      <c r="C998" s="11"/>
-      <c r="D998" s="11"/>
-      <c r="E998" s="12"/>
-      <c r="F998" s="12"/>
-      <c r="G998" s="12"/>
-      <c r="H998" s="12"/>
       <c r="I998" s="13"/>
       <c r="J998" s="13"/>
       <c r="K998" s="13"/>
@@ -20791,13 +20808,6 @@
       <c r="S998" s="13"/>
     </row>
     <row r="999" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B999" s="1"/>
-      <c r="C999" s="11"/>
-      <c r="D999" s="11"/>
-      <c r="E999" s="12"/>
-      <c r="F999" s="12"/>
-      <c r="G999" s="12"/>
-      <c r="H999" s="12"/>
       <c r="I999" s="13"/>
       <c r="J999" s="13"/>
       <c r="K999" s="13"/>
@@ -20812,8 +20822,8 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="B7:B8"/>

--- a/doc/BangKeHoach-DoAn1.xlsx
+++ b/doc/BangKeHoach-DoAn1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DangKhoa\Desktop\doan1\Project-1-\Doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sdsdd\OneDrive\Desktop\doan1\Project-1-\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="22" documentId="11_89E24268095BF66EEFF053BFFD5FF32F39E6DA12" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0478EE41-E357-4929-A0FD-F8B963DFD8E1}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kế Hoạch" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="40">
   <si>
     <t>DANH SÁCH CÔNG VIỆC</t>
   </si>
@@ -134,11 +135,17 @@
   <si>
     <t>undo,redo</t>
   </si>
+  <si>
+    <t>Làm báo cáo</t>
+  </si>
+  <si>
+    <t>Word, powerpoint, demo</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-1010000]d/m/yyyy;@"/>
   </numFmts>
@@ -197,7 +204,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -240,9 +247,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -252,6 +256,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -284,7 +294,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1">
-    <tableStyle name="Kế Hoạch-style" pivot="0" count="3">
+    <tableStyle name="Kế Hoạch-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="headerRow" dxfId="2"/>
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
@@ -597,11 +607,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -615,16 +625,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -642,16 +652,16 @@
       <c r="W1" s="1"/>
     </row>
     <row r="2" spans="1:23" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -722,16 +732,16 @@
       <c r="D4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="20" t="s">
         <v>14</v>
       </c>
       <c r="I4" s="8"/>
@@ -760,16 +770,16 @@
       <c r="D5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="7"/>
+      <c r="H5" s="20"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -797,16 +807,16 @@
         <v>12</v>
       </c>
       <c r="D6" s="6"/>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="20" t="s">
         <v>27</v>
       </c>
       <c r="I6" s="8"/>
@@ -826,23 +836,23 @@
       <c r="W6" s="8"/>
     </row>
     <row r="7" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="17" t="s">
+      <c r="D7" s="19"/>
+      <c r="E7" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="17" t="s">
+      <c r="H7" s="21" t="s">
         <v>20</v>
       </c>
       <c r="I7" s="8"/>
@@ -862,13 +872,13 @@
       <c r="W7" s="8"/>
     </row>
     <row r="8" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="19"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
@@ -896,16 +906,16 @@
       <c r="D9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="7">
-        <v>43595</v>
+      <c r="E9" s="20">
+        <v>43743</v>
       </c>
-      <c r="F9" s="7">
-        <v>43626</v>
+      <c r="F9" s="20">
+        <v>43744</v>
       </c>
-      <c r="G9" s="7">
-        <v>43506</v>
+      <c r="G9" s="20">
+        <v>43740</v>
       </c>
-      <c r="H9" s="7"/>
+      <c r="H9" s="20"/>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
@@ -930,16 +940,16 @@
       <c r="D10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="7">
-        <v>43656</v>
+      <c r="E10" s="20">
+        <v>43745</v>
       </c>
-      <c r="F10" s="7">
-        <v>43718</v>
+      <c r="F10" s="20">
+        <v>43747</v>
       </c>
-      <c r="G10" s="7">
-        <v>43506</v>
+      <c r="G10" s="20">
+        <v>43740</v>
       </c>
-      <c r="H10" s="7"/>
+      <c r="H10" s="20"/>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
@@ -967,14 +977,14 @@
         <v>12</v>
       </c>
       <c r="D11" s="10"/>
-      <c r="E11" s="7">
+      <c r="E11" s="20">
         <v>43748</v>
       </c>
-      <c r="F11" s="7">
-        <v>43809</v>
+      <c r="F11" s="20">
+        <v>43750</v>
       </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
@@ -999,10 +1009,10 @@
         <v>12</v>
       </c>
       <c r="D12" s="10"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
@@ -1027,10 +1037,10 @@
         <v>12</v>
       </c>
       <c r="D13" s="10"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
@@ -1060,14 +1070,14 @@
       <c r="D14" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="20">
         <v>43748</v>
       </c>
-      <c r="F14" s="7">
-        <v>43779</v>
+      <c r="F14" s="20">
+        <v>43749</v>
       </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
@@ -1092,14 +1102,14 @@
       <c r="D15" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="21">
         <v>43748</v>
       </c>
-      <c r="F15" s="17">
-        <v>43779</v>
+      <c r="F15" s="21">
+        <v>43749</v>
       </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
@@ -1126,10 +1136,10 @@
       <c r="D16" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
@@ -1147,11 +1157,24 @@
       <c r="W16" s="8"/>
     </row>
     <row r="17" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="9"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
+      <c r="A17" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="7">
+        <v>43750</v>
+      </c>
+      <c r="F17" s="7">
+        <v>43753</v>
+      </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="8"/>

--- a/doc/BangKeHoach-DoAn1.xlsx
+++ b/doc/BangKeHoach-DoAn1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sdsdd\OneDrive\Desktop\doan1\Project-1-\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="11_89E24268095BF66EEFF053BFFD5FF32F39E6DA12" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0478EE41-E357-4929-A0FD-F8B963DFD8E1}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="11_89E24268095BF66EEFF053BFFD5FF32F39E6DA12" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{92AECB3C-2344-4700-8BDB-E716C2D40BFE}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -247,6 +247,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -256,12 +262,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -611,7 +611,7 @@
   <dimension ref="A1:W999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -625,16 +625,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -652,16 +652,16 @@
       <c r="W1" s="1"/>
     </row>
     <row r="2" spans="1:23" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -732,16 +732,16 @@
       <c r="D4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="17" t="s">
         <v>14</v>
       </c>
       <c r="I4" s="8"/>
@@ -770,16 +770,16 @@
       <c r="D5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="20"/>
+      <c r="H5" s="17"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -803,20 +803,20 @@
       <c r="B6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="6"/>
+      <c r="D6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="17" t="s">
         <v>27</v>
       </c>
       <c r="I6" s="8"/>
@@ -836,23 +836,23 @@
       <c r="W6" s="8"/>
     </row>
     <row r="7" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="21"/>
+      <c r="D7" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="G7" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="21" t="s">
+      <c r="H7" s="18" t="s">
         <v>20</v>
       </c>
       <c r="I7" s="8"/>
@@ -872,13 +872,13 @@
       <c r="W7" s="8"/>
     </row>
     <row r="8" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="18"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
@@ -906,16 +906,18 @@
       <c r="D9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="17">
         <v>43743</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9" s="17">
         <v>43744</v>
       </c>
-      <c r="G9" s="20">
+      <c r="G9" s="17">
         <v>43740</v>
       </c>
-      <c r="H9" s="20"/>
+      <c r="H9" s="17">
+        <v>43743</v>
+      </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
@@ -940,16 +942,18 @@
       <c r="D10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="17">
         <v>43745</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="17">
         <v>43747</v>
       </c>
-      <c r="G10" s="20">
+      <c r="G10" s="17">
         <v>43740</v>
       </c>
-      <c r="H10" s="20"/>
+      <c r="H10" s="17">
+        <v>43742</v>
+      </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
@@ -977,14 +981,18 @@
         <v>12</v>
       </c>
       <c r="D11" s="10"/>
-      <c r="E11" s="20">
+      <c r="E11" s="17">
         <v>43748</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F11" s="17">
         <v>43750</v>
       </c>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
+      <c r="G11" s="17">
+        <v>43746</v>
+      </c>
+      <c r="H11" s="17">
+        <v>43747</v>
+      </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
@@ -1009,10 +1017,14 @@
         <v>12</v>
       </c>
       <c r="D12" s="10"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17">
+        <v>43747</v>
+      </c>
+      <c r="H12" s="17">
+        <v>43748</v>
+      </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
@@ -1037,10 +1049,14 @@
         <v>12</v>
       </c>
       <c r="D13" s="10"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17">
+        <v>43748</v>
+      </c>
+      <c r="H13" s="17">
+        <v>43750</v>
+      </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
@@ -1070,14 +1086,18 @@
       <c r="D14" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="17">
         <v>43748</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14" s="17">
         <v>43749</v>
       </c>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
+      <c r="G14" s="17">
+        <v>43750</v>
+      </c>
+      <c r="H14" s="17">
+        <v>43751</v>
+      </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
@@ -1102,14 +1122,18 @@
       <c r="D15" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="18">
         <v>43748</v>
       </c>
-      <c r="F15" s="21">
+      <c r="F15" s="18">
         <v>43749</v>
       </c>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
+      <c r="G15" s="18">
+        <v>43751</v>
+      </c>
+      <c r="H15" s="18">
+        <v>43753</v>
+      </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
@@ -1136,10 +1160,10 @@
       <c r="D16" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
@@ -1175,8 +1199,12 @@
       <c r="F17" s="7">
         <v>43753</v>
       </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
+      <c r="G17" s="7">
+        <v>43758</v>
+      </c>
+      <c r="H17" s="7">
+        <v>43760</v>
+      </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
@@ -20844,7 +20872,7 @@
       <c r="S999" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="13">
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="F15:F16"/>
     <mergeCell ref="A1:H1"/>
@@ -20856,6 +20884,8 @@
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="D7:D8"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
